--- a/stoplosses.xlsx
+++ b/stoplosses.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MyLua\22--LithiumTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MyLua\Git\LithiumIndicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D60ACF-2D25-4A49-92DD-B8EF027AA63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9060C85A-8692-43A6-BA32-FB6E5FDAB972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{1CD6D060-BB97-44A8-AA9F-D4E9D41EDB0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{1CD6D060-BB97-44A8-AA9F-D4E9D41EDB0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="gdz 100pt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="275">
   <si>
     <t>Действие</t>
   </si>
@@ -151,6 +152,714 @@
   </si>
   <si>
     <t>2risk, 25% pos</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Отмена</t>
+  </si>
+  <si>
+    <t>Всех предыдущих действий</t>
+  </si>
+  <si>
+    <t>Покупка</t>
+  </si>
+  <si>
+    <t>Попутная +0,0, объем 8</t>
+  </si>
+  <si>
+    <t>Завершения действий с ID 10</t>
+  </si>
+  <si>
+    <t>Закрытие*</t>
+  </si>
+  <si>
+    <t>Цена поз. -3,0, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Цена поз. +1,5, П. 50%</t>
+  </si>
+  <si>
+    <t>Завершения действий с ID 30</t>
+  </si>
+  <si>
+    <t>Цена поз. -1,5, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Предыдущих действий с ID = 20</t>
+  </si>
+  <si>
+    <t>Цена поз. +3,0, П. 25%</t>
+  </si>
+  <si>
+    <t>Завершения действий с ID 50</t>
+  </si>
+  <si>
+    <t>Цена поз. +0,0, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Предыдущих действий с ID = 40</t>
+  </si>
+  <si>
+    <t>Цена поз. +4,5, П. 34%</t>
+  </si>
+  <si>
+    <t>Завершения действий с ID 70</t>
+  </si>
+  <si>
+    <t>Цена поз. -1,0, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Цена поз. +0,5, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. -0,5, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Цена поз. +1,0, П. 25%</t>
+  </si>
+  <si>
+    <t>Цена поз. +1,5, П. 34%</t>
+  </si>
+  <si>
+    <t>Цена поз. +0,8, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Предыдущих действий с ID = 60</t>
+  </si>
+  <si>
+    <t>Цена поз. +2,0, П. 50%</t>
+  </si>
+  <si>
+    <t>Завершения действий с ID 90</t>
+  </si>
+  <si>
+    <t>Цена поз. +1,5, П. 100%, *0,1/0,5/0,5</t>
+  </si>
+  <si>
+    <t>Цена поз. -2,0, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Цена поз. +1,0, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. +2,0, П. 25%</t>
+  </si>
+  <si>
+    <t>Цена поз. +3,0, П. 34%</t>
+  </si>
+  <si>
+    <t>Цена поз. +2,0, П. 100%, *0,1</t>
+  </si>
+  <si>
+    <t>Цена поз. +4,0, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. +3,5, П. 100%, *0,1/0,5/0,5</t>
+  </si>
+  <si>
+    <t>Цена поз. +6,0, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. +4,5, П. 100%, *0,1/1,5/1,5</t>
+  </si>
+  <si>
+    <t>Попутная +0, Р. 100%</t>
+  </si>
+  <si>
+    <t>Цена поз. -30, П. 100%, *1</t>
+  </si>
+  <si>
+    <t>Цена поз. +15, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. -15, П. 100%, *1</t>
+  </si>
+  <si>
+    <t>Цена поз. +30, П. 25%</t>
+  </si>
+  <si>
+    <t>Цена поз. +0, П. 100%, *1</t>
+  </si>
+  <si>
+    <t>Цена поз. +45, П. 34%</t>
+  </si>
+  <si>
+    <t>Цена поз. +20, П. 100%, *1</t>
+  </si>
+  <si>
+    <t>Цена поз. +60, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. +45, П. 100%, *1/15/15</t>
+  </si>
+  <si>
+    <t>Цена поз. -40, П. 100%, *2</t>
+  </si>
+  <si>
+    <t>Цена поз. +20, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. -20, П. 100%, *2</t>
+  </si>
+  <si>
+    <t>Цена поз. +40, П. 25%</t>
+  </si>
+  <si>
+    <t>Цена поз. +0, П. 100%, *2</t>
+  </si>
+  <si>
+    <t>Цена поз. +60, П. 34%</t>
+  </si>
+  <si>
+    <t>Цена поз. +30, П. 100%, *2</t>
+  </si>
+  <si>
+    <t>Цена поз. +80, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. +60, П. 100%, *2/20/20</t>
+  </si>
+  <si>
+    <t>Цена поз. -50, П. 100%, *3</t>
+  </si>
+  <si>
+    <t>Цена поз. +25, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. -25, П. 100%, *3</t>
+  </si>
+  <si>
+    <t>Цена поз. +50, П. 25%</t>
+  </si>
+  <si>
+    <t>Цена поз. +0, П. 100%, *3</t>
+  </si>
+  <si>
+    <t>Цена поз. +75, П. 34%</t>
+  </si>
+  <si>
+    <t>Цена поз. +35, П. 100%, *3</t>
+  </si>
+  <si>
+    <t>Цена поз. +100, П. 50%</t>
+  </si>
+  <si>
+    <t>Цена поз. +75, П. 100%, *3/25/25</t>
+  </si>
+  <si>
+    <t>Cancel-All_Transactions</t>
+  </si>
+  <si>
+    <t>Cancel-Stated_Order</t>
+  </si>
+  <si>
+    <t>FEK-Limit_1_Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Limit_1_Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Limit_Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Limit_Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Limit_Order-Take_Profit</t>
+  </si>
+  <si>
+    <t>FEK-Market_Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Market_Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Stop_Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Stop_Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Stop_Order-Stop_Loss</t>
+  </si>
+  <si>
+    <t>FEK-Stop_Order-Trailing_Profit</t>
+  </si>
+  <si>
+    <t>FEK-Trade_1-1_20</t>
+  </si>
+  <si>
+    <t>FEK-Trade_1-2_40</t>
+  </si>
+  <si>
+    <t>FEK-Trade_1-3_60</t>
+  </si>
+  <si>
+    <t>FEK-Trade_1-4-_80</t>
+  </si>
+  <si>
+    <t>FEK-Trade_2-1_0</t>
+  </si>
+  <si>
+    <t>FEK-Trade_2-2_20</t>
+  </si>
+  <si>
+    <t>FEK-Trade_2-3_40</t>
+  </si>
+  <si>
+    <t>FEK-Trade_3-1_0</t>
+  </si>
+  <si>
+    <t>FEK-Trade_3-2_20</t>
+  </si>
+  <si>
+    <t>Limit_Order-Buy</t>
+  </si>
+  <si>
+    <t>Limit_Order-Sell</t>
+  </si>
+  <si>
+    <t>Limit_Order-Take_Profit</t>
+  </si>
+  <si>
+    <t>Market_Order-Buy</t>
+  </si>
+  <si>
+    <t>Market_Order-Sell</t>
+  </si>
+  <si>
+    <t>Position_ Accumulation</t>
+  </si>
+  <si>
+    <t>Position_Close</t>
+  </si>
+  <si>
+    <t>Position_Distribution</t>
+  </si>
+  <si>
+    <t>Position_Reverse</t>
+  </si>
+  <si>
+    <t>Stop_Order-Buy</t>
+  </si>
+  <si>
+    <t>Stop_Order-Sell</t>
+  </si>
+  <si>
+    <t>Stop_Order-Stop_Loss</t>
+  </si>
+  <si>
+    <t>Событие</t>
+  </si>
+  <si>
+    <t>Клавиша</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>Нажатие</t>
+  </si>
+  <si>
+    <t>±  Установить масштаб 100%</t>
+  </si>
+  <si>
+    <t>( ) Задать рабочий объем равным 1</t>
+  </si>
+  <si>
+    <t>( ) Задать рабочий объем равным 2</t>
+  </si>
+  <si>
+    <t>( ) Задать рабочий объем равным 4</t>
+  </si>
+  <si>
+    <t>( ) Задать рабочий объем равным 8</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>≡  Прокрутить назад «Интрадей»</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>( ) Увеличить рабочий объем на 1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>○  FEK-Stop_Order-Buy</t>
+  </si>
+  <si>
+    <t>Backspace</t>
+  </si>
+  <si>
+    <t>○  Position_Close</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>↑↓ Отцентровать спред</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>≡  Прокрутить вперед «Интрадей»</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>○  Market_Order-Sell</t>
+  </si>
+  <si>
+    <t>Отпускание</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>↑↓ Отцентровать спред везде</t>
+  </si>
+  <si>
+    <t>Escape</t>
+  </si>
+  <si>
+    <t>○  Cancel-All_Transactions</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>○  FEK-Stop_Order-Trailing_Profit</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>○  FEK-Stop_Order-Stop_Loss</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>○  Position_Distribution</t>
+  </si>
+  <si>
+    <t>Minus</t>
+  </si>
+  <si>
+    <t>±  Уменьшить масштаб на 10%</t>
+  </si>
+  <si>
+    <t>NumPad0</t>
+  </si>
+  <si>
+    <t>○  FEK-Market_Order-Buy</t>
+  </si>
+  <si>
+    <t>NumPad1</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_1-1_20</t>
+  </si>
+  <si>
+    <t>NumPad2</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_1-2_40</t>
+  </si>
+  <si>
+    <t>NumPad3</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_1-3_60</t>
+  </si>
+  <si>
+    <t>NumPad4</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_1-4-_80</t>
+  </si>
+  <si>
+    <t>NumPad5</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_2-1_0</t>
+  </si>
+  <si>
+    <t>NumPad6</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_2-2_20</t>
+  </si>
+  <si>
+    <t>NumPad7</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_2-3_40</t>
+  </si>
+  <si>
+    <t>NumPad8</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_3-1_0</t>
+  </si>
+  <si>
+    <t>NumPad9</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade_3-2_20</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>○  FEK-Limit_Order-Take_Profit</t>
+  </si>
+  <si>
+    <t>PageDown</t>
+  </si>
+  <si>
+    <t>↑↓ Прокрутить стакан вниз</t>
+  </si>
+  <si>
+    <t>PageUp</t>
+  </si>
+  <si>
+    <t>↑↓ Прокрутить стакан вверх</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>±  Увеличить масштаб на 10%</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>○  Position_ Accumulation</t>
+  </si>
+  <si>
+    <t>RightShift</t>
+  </si>
+  <si>
+    <t>× Включить блокировку клавиатуры</t>
+  </si>
+  <si>
+    <t>× Выключить блокировку клавиатуры</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>○  FEK-Stop_Order-Sell</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>○  Cancel-Stated_Order</t>
+  </si>
+  <si>
+    <t>Subtract</t>
+  </si>
+  <si>
+    <t>( ) Уменьшить рабочий объем на 1</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>○  Position_Reverse</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>○  Market_Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Limit-1-Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Limit-1-Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Limit-Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Limit-Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Limit-Order-TakeProfit</t>
+  </si>
+  <si>
+    <t>FEK-Market-Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Market-Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Stop-Order-Buy</t>
+  </si>
+  <si>
+    <t>FEK-Stop-Order-Sell</t>
+  </si>
+  <si>
+    <t>FEK-Stop-Order-StopLoss</t>
+  </si>
+  <si>
+    <t>FEK-Stop-Order-TrailingProfit</t>
+  </si>
+  <si>
+    <t>FEK-Trade 1-1 на 0.5</t>
+  </si>
+  <si>
+    <t>FEK-Trade 1-2 на 1.0</t>
+  </si>
+  <si>
+    <t>FEK-Trade 1-3 на 1.5</t>
+  </si>
+  <si>
+    <t>FEK-Trade 1-4 на 2.0</t>
+  </si>
+  <si>
+    <t>FEK-Trade 2-1 на 0.0</t>
+  </si>
+  <si>
+    <t>FEK-Trade 2-2 на 0.5</t>
+  </si>
+  <si>
+    <t>FEK-Trade 2-3 на 1.0</t>
+  </si>
+  <si>
+    <t>FEK-Trade 3-1 на 0.0</t>
+  </si>
+  <si>
+    <t>FEK-Trade 3-2 на 0.5</t>
+  </si>
+  <si>
+    <t>Заявка на покупку</t>
+  </si>
+  <si>
+    <t>Заявка на продажу</t>
+  </si>
+  <si>
+    <t>м: Покупка</t>
+  </si>
+  <si>
+    <t>м: Продажа</t>
+  </si>
+  <si>
+    <t>м: Снятие заявки</t>
+  </si>
+  <si>
+    <t>м: Стоп лосс</t>
+  </si>
+  <si>
+    <t>м: Стоп-покупка</t>
+  </si>
+  <si>
+    <t>м: Стоп-продажа</t>
+  </si>
+  <si>
+    <t>м: Тейк-профит</t>
+  </si>
+  <si>
+    <t>Отмена всех операций</t>
+  </si>
+  <si>
+    <t>Позиция: закрытие</t>
+  </si>
+  <si>
+    <t>Позиция: наращивание</t>
+  </si>
+  <si>
+    <t>Позиция: разворот</t>
+  </si>
+  <si>
+    <t>Позиция: уменьшение</t>
+  </si>
+  <si>
+    <t>○  FEK-Stop-Order-Buy</t>
+  </si>
+  <si>
+    <t>○  Позиция: закрытие</t>
+  </si>
+  <si>
+    <t>○  Заявка на продажу</t>
+  </si>
+  <si>
+    <t>○  Отмена всех операций</t>
+  </si>
+  <si>
+    <t>○  FEK-Stop-Order-TrailingProfit</t>
+  </si>
+  <si>
+    <t>○  FEK-Stop-Order-StopLoss</t>
+  </si>
+  <si>
+    <t>○  Позиция: уменьшение</t>
+  </si>
+  <si>
+    <t>○  FEK-Market-Order-Buy</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 1-1 на 0.5</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 1-2 на 1.0</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 1-3 на 1.5</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 1-4 на 2.0</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 2-1 на 0.0</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 2-2 на 0.5</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 2-3 на 1.0</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 3-1 на 0.0</t>
+  </si>
+  <si>
+    <t>○  FEK-Trade 3-2 на 0.5</t>
+  </si>
+  <si>
+    <t>○  FEK-Limit-Order-TakeProfit</t>
+  </si>
+  <si>
+    <t>○  Позиция: наращивание</t>
+  </si>
+  <si>
+    <t>○  м: Снятие заявки</t>
+  </si>
+  <si>
+    <t>○  Позиция: разворот</t>
+  </si>
+  <si>
+    <t>○  Заявка на покупку</t>
   </si>
 </sst>
 </file>
@@ -508,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7E0012-FCC4-41AA-ADC5-7F02586A8E7B}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -752,4 +1461,2292 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ED4BB8-6BE3-47DD-9486-84F19760E2C2}">
+  <dimension ref="A1:U71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="1">
+        <v>40</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" t="s">
+        <v>45</v>
+      </c>
+      <c r="T10">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>50</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <v>50</v>
+      </c>
+      <c r="U12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>60</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15">
+        <v>60</v>
+      </c>
+      <c r="U15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>70</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>70</v>
+      </c>
+      <c r="U17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="1">
+        <v>80</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20">
+        <v>80</v>
+      </c>
+      <c r="P20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S20" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>90</v>
+      </c>
+      <c r="J22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="1">
+        <v>90</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>90</v>
+      </c>
+      <c r="P22" t="s">
+        <v>93</v>
+      </c>
+      <c r="S22" t="s">
+        <v>9</v>
+      </c>
+      <c r="T22">
+        <v>90</v>
+      </c>
+      <c r="U22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s">
+        <v>94</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>2</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="1">
+        <v>4</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>